--- a/data/evaluate/site-search-results-old.xlsx
+++ b/data/evaluate/site-search-results-old.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="487">
   <si>
     <t>query</t>
   </si>
@@ -1788,6 +1788,11 @@
     <t>Mon Mar 15 17:10:06 2021</t>
   </si>
   <si>
+    <t>Public Bank Vietnam Limited VIETNAM
+https://publicbank.com.vn 2021 Financial
+Statements 2021</t>
+  </si>
+  <si>
     <t>Public Bank Vietnam Limited - Financial Statements
 for the year ended</t>
   </si>
@@ -1896,6 +1901,11 @@
 ward Hoan Kiem district Hanoi Vietnam. As at 31
 December 2022 the. Bank had one (1) Head Office
 twenty (20) ...</t>
+  </si>
+  <si>
+    <t>Public Bank Vietnam Limited VIETNAM
+https://publicbank.com.vn 2022 Financial
+Statements 2022</t>
   </si>
   <si>
     <t>Dec 31 2020 ... JON VN. HOAN hee Keng Eng. VIỆT
@@ -1970,13 +1980,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2054,13 +2064,13 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2370,7 +2380,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="63.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="80.14785714285713" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="9" width="14.862142857142858" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="10" width="14.862142857142858" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="8" width="38.005" customWidth="1" bestFit="1"/>
@@ -3387,7 +3397,7 @@
         <v>138</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="75.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="84" customFormat="1" s="1">
       <c r="A41" s="4" t="s">
         <v>104</v>
       </c>
@@ -3414,7 +3424,7 @@
         <v>142</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="52.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="57.75" customFormat="1" s="1">
       <c r="A42" s="4" t="s">
         <v>143</v>
       </c>
@@ -3435,7 +3445,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="57.75" customFormat="1" s="1">
       <c r="A43" s="4" t="s">
         <v>143</v>
       </c>
@@ -3464,7 +3474,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="84" customFormat="1" s="1">
       <c r="A44" s="4" t="s">
         <v>143</v>
       </c>
@@ -3491,7 +3501,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="84" customFormat="1" s="1">
       <c r="A45" s="4" t="s">
         <v>143</v>
       </c>
@@ -3512,7 +3522,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="71.25" customFormat="1" s="1">
       <c r="A46" s="4" t="s">
         <v>143</v>
       </c>
@@ -3533,7 +3543,7 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="57.75" customFormat="1" s="1">
       <c r="A47" s="4" t="s">
         <v>143</v>
       </c>
@@ -3554,7 +3564,7 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="96.75" customFormat="1" s="1">
       <c r="A48" s="4" t="s">
         <v>143</v>
       </c>
@@ -3575,7 +3585,7 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="84" customFormat="1" s="1">
       <c r="A49" s="4" t="s">
         <v>143</v>
       </c>
@@ -3602,7 +3612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="84" customFormat="1" s="1">
       <c r="A50" s="4" t="s">
         <v>143</v>
       </c>
@@ -3629,7 +3639,7 @@
         <v>155</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="96.75" customFormat="1" s="1">
       <c r="A51" s="4" t="s">
         <v>143</v>
       </c>
@@ -3656,7 +3666,7 @@
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="84" customFormat="1" s="1">
       <c r="A52" s="4" t="s">
         <v>160</v>
       </c>
@@ -3685,7 +3695,7 @@
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="57.75" customFormat="1" s="1">
       <c r="A53" s="4" t="s">
         <v>160</v>
       </c>
@@ -3706,7 +3716,7 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="84" customFormat="1" s="1">
       <c r="A54" s="4" t="s">
         <v>160</v>
       </c>
@@ -3733,7 +3743,7 @@
         <v>167</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="71.25" customFormat="1" s="1">
       <c r="A55" s="4" t="s">
         <v>160</v>
       </c>
@@ -3760,7 +3770,7 @@
         <v>172</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="57.75" customFormat="1" s="1">
       <c r="A56" s="4" t="s">
         <v>160</v>
       </c>
@@ -3787,7 +3797,7 @@
         <v>91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="71.25" customFormat="1" s="1">
       <c r="A57" s="4" t="s">
         <v>160</v>
       </c>
@@ -3814,7 +3824,7 @@
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="71.25" customFormat="1" s="1">
       <c r="A58" s="4" t="s">
         <v>160</v>
       </c>
@@ -3841,7 +3851,7 @@
         <v>180</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="71.25" customFormat="1" s="1">
       <c r="A59" s="4" t="s">
         <v>160</v>
       </c>
@@ -3862,7 +3872,7 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="84" customFormat="1" s="1">
       <c r="A60" s="4" t="s">
         <v>160</v>
       </c>
@@ -3889,7 +3899,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="84" customFormat="1" s="1">
       <c r="A61" s="4" t="s">
         <v>160</v>
       </c>
@@ -3916,7 +3926,7 @@
         <v>187</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="84" customFormat="1" s="1">
       <c r="A62" s="4" t="s">
         <v>188</v>
       </c>
@@ -3945,7 +3955,7 @@
         <v>187</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="96.75" customFormat="1" s="1">
       <c r="A63" s="4" t="s">
         <v>188</v>
       </c>
@@ -3972,7 +3982,7 @@
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="84" customFormat="1" s="1">
       <c r="A64" s="4" t="s">
         <v>188</v>
       </c>
@@ -3999,7 +4009,7 @@
         <v>167</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="84" customFormat="1" s="1">
       <c r="A65" s="4" t="s">
         <v>188</v>
       </c>
@@ -4020,7 +4030,7 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="57.75" customFormat="1" s="1">
       <c r="A66" s="4" t="s">
         <v>188</v>
       </c>
@@ -4047,7 +4057,7 @@
         <v>194</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="84" customFormat="1" s="1">
       <c r="A67" s="4" t="s">
         <v>188</v>
       </c>
@@ -4074,7 +4084,7 @@
         <v>198</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="71.25" customFormat="1" s="1">
       <c r="A68" s="4" t="s">
         <v>188</v>
       </c>
@@ -4101,7 +4111,7 @@
         <v>180</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="57.75" customFormat="1" s="1">
       <c r="A69" s="4" t="s">
         <v>188</v>
       </c>
@@ -4128,7 +4138,7 @@
         <v>172</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="71.25" customFormat="1" s="1">
       <c r="A70" s="4" t="s">
         <v>188</v>
       </c>
@@ -4155,7 +4165,7 @@
         <v>205</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="71.25" customFormat="1" s="1">
       <c r="A71" s="4" t="s">
         <v>188</v>
       </c>
@@ -4182,7 +4192,7 @@
         <v>208</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="57.75" customFormat="1" s="1">
       <c r="A72" s="4" t="s">
         <v>209</v>
       </c>
@@ -4203,7 +4213,7 @@
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="84" customFormat="1" s="1">
       <c r="A73" s="4" t="s">
         <v>209</v>
       </c>
@@ -4224,7 +4234,7 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="96.75" customFormat="1" s="1">
       <c r="A74" s="4" t="s">
         <v>209</v>
       </c>
@@ -4253,7 +4263,7 @@
         <v>217</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="71.25" customFormat="1" s="1">
       <c r="A75" s="4" t="s">
         <v>209</v>
       </c>
@@ -4274,7 +4284,7 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="57.75" customFormat="1" s="1">
       <c r="A76" s="4" t="s">
         <v>209</v>
       </c>
@@ -4301,7 +4311,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="15" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="84" customFormat="1" s="1">
       <c r="A77" s="4" t="s">
         <v>209</v>
       </c>
@@ -6074,30 +6084,30 @@
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="15" customFormat="1" s="1">
       <c r="A152" s="4" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B152" s="5">
         <v>2</v>
       </c>
       <c r="C152" s="7"/>
       <c r="D152" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
       <c r="I152" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="15" customFormat="1" s="1">
       <c r="A153" s="4" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B153" s="5">
         <v>3</v>
@@ -6107,20 +6117,20 @@
         <v>278</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
       <c r="I153" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="15" customFormat="1" s="1">
       <c r="A154" s="4" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B154" s="5">
         <v>4</v>
@@ -6130,104 +6140,104 @@
         <v>278</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
       <c r="I154" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="15" customFormat="1" s="1">
       <c r="A155" s="4" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B155" s="5">
         <v>5</v>
       </c>
       <c r="C155" s="7"/>
       <c r="D155" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="15" customFormat="1" s="1">
       <c r="A156" s="4" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B156" s="5">
         <v>6</v>
       </c>
       <c r="C156" s="7"/>
       <c r="D156" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
       <c r="I156" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="15" customFormat="1" s="1">
       <c r="A157" s="4" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B157" s="5">
         <v>7</v>
       </c>
       <c r="C157" s="7"/>
       <c r="D157" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E157" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="G157" s="4" t="s">
         <v>466</v>
-      </c>
-      <c r="F157" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="G157" s="4" t="s">
-        <v>465</v>
       </c>
       <c r="H157" s="4"/>
       <c r="I157" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="15" customFormat="1" s="1">
       <c r="A158" s="4" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B158" s="5">
         <v>8</v>
       </c>
       <c r="C158" s="7"/>
       <c r="D158" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
@@ -6235,30 +6245,30 @@
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="15" customFormat="1" s="1">
       <c r="A159" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B159" s="5">
         <v>1</v>
       </c>
       <c r="C159" s="7"/>
       <c r="D159" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
       <c r="I159" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="15" customFormat="1" s="1">
       <c r="A160" s="4" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B160" s="5">
         <v>2</v>
@@ -6271,7 +6281,7 @@
         <v>444</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
@@ -6281,7 +6291,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="15" customFormat="1" s="1">
       <c r="A161" s="4" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B161" s="5">
         <v>3</v>
@@ -6291,43 +6301,43 @@
         <v>278</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
       <c r="I161" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="15" customFormat="1" s="1">
       <c r="A162" s="4" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B162" s="5">
         <v>4</v>
       </c>
       <c r="C162" s="7"/>
       <c r="D162" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
       <c r="I162" s="4" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="15" customFormat="1" s="1">
       <c r="A163" s="4" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B163" s="5">
         <v>5</v>
@@ -6337,33 +6347,33 @@
         <v>278</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
       <c r="I163" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="15" customFormat="1" s="1">
       <c r="A164" s="4" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B164" s="5">
         <v>6</v>
       </c>
       <c r="C164" s="7"/>
       <c r="D164" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
@@ -6371,7 +6381,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="15" customFormat="1" s="1">
       <c r="A165" s="4" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B165" s="5">
         <v>1</v>
@@ -6394,30 +6404,30 @@
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="15" customFormat="1" s="1">
       <c r="A166" s="4" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B166" s="5">
         <v>2</v>
       </c>
       <c r="C166" s="7"/>
       <c r="D166" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
       <c r="I166" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="15" customFormat="1" s="1">
       <c r="A167" s="4" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B167" s="5">
         <v>3</v>
@@ -6427,20 +6437,20 @@
         <v>278</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
       <c r="I167" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="15" customFormat="1" s="1">
       <c r="A168" s="4" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B168" s="5">
         <v>4</v>
@@ -6450,79 +6460,79 @@
         <v>278</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
       <c r="I168" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="15" customFormat="1" s="1">
       <c r="A169" s="4" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B169" s="5">
         <v>5</v>
       </c>
       <c r="C169" s="7"/>
       <c r="D169" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G169" s="4"/>
       <c r="H169" s="4"/>
       <c r="I169" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="15" customFormat="1" s="1">
       <c r="A170" s="4" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B170" s="5">
         <v>6</v>
       </c>
       <c r="C170" s="7"/>
       <c r="D170" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
       <c r="I170" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="15" customFormat="1" s="1">
       <c r="A171" s="4" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B171" s="5">
         <v>7</v>
       </c>
       <c r="C171" s="7"/>
       <c r="D171" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
@@ -6530,55 +6540,55 @@
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="15" customFormat="1" s="1">
       <c r="A172" s="4" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B172" s="5">
         <v>8</v>
       </c>
       <c r="C172" s="7"/>
       <c r="D172" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E172" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="G172" s="4" t="s">
         <v>466</v>
-      </c>
-      <c r="F172" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="G172" s="4" t="s">
-        <v>465</v>
       </c>
       <c r="H172" s="4"/>
       <c r="I172" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="15" customFormat="1" s="1">
       <c r="A173" s="4" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B173" s="5">
         <v>1</v>
       </c>
       <c r="C173" s="7"/>
       <c r="D173" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
       <c r="I173" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="15" customFormat="1" s="1">
       <c r="A174" s="4" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B174" s="5">
         <v>2</v>
@@ -6591,7 +6601,7 @@
         <v>444</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
@@ -6601,30 +6611,30 @@
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="15" customFormat="1" s="1">
       <c r="A175" s="4" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B175" s="5">
         <v>3</v>
       </c>
       <c r="C175" s="7"/>
       <c r="D175" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
       <c r="I175" s="4" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="15" customFormat="1" s="1">
       <c r="A176" s="4" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B176" s="5">
         <v>4</v>
@@ -6634,20 +6644,20 @@
         <v>278</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
       <c r="I176" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="15" customFormat="1" s="1">
       <c r="A177" s="4" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B177" s="5">
         <v>5</v>
@@ -6657,33 +6667,33 @@
         <v>278</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
       <c r="I177" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="15" customFormat="1" s="1">
       <c r="A178" s="4" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B178" s="5">
         <v>6</v>
       </c>
       <c r="C178" s="7"/>
       <c r="D178" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
